--- a/TestData/SeleniumTestData.xlsx
+++ b/TestData/SeleniumTestData.xlsx
@@ -5,14 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sys\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sys\eclipse-workspace\DemoWebShop\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="invalidData" sheetId="4" r:id="rId2"/>
+    <sheet name="regdata" sheetId="2" r:id="rId3"/>
+    <sheet name="newregdata" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>URL</t>
   </si>
@@ -42,6 +45,27 @@
   </si>
   <si>
     <t>rakshitha.hn1992@gmail.com</t>
+  </si>
+  <si>
+    <t>Rakshitha</t>
+  </si>
+  <si>
+    <t>Ravi</t>
+  </si>
+  <si>
+    <t>rakshithang106@gmail.com</t>
+  </si>
+  <si>
+    <t>rakshitha106@gmail.com</t>
+  </si>
+  <si>
+    <t>Ra</t>
+  </si>
+  <si>
+    <t>rakshitha.hn19@gmail.com</t>
+  </si>
+  <si>
+    <t>sanay123</t>
   </si>
 </sst>
 </file>
@@ -372,8 +396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,4 +436,122 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="B1" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C1" r:id="rId1"/>
+    <hyperlink ref="D1" r:id="rId2"/>
+    <hyperlink ref="E1" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C1" r:id="rId1"/>
+    <hyperlink ref="D1" r:id="rId2"/>
+    <hyperlink ref="E1" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>